--- a/6-9 运营对接有赞商城/2c产品.xlsx
+++ b/6-9 运营对接有赞商城/2c产品.xlsx
@@ -5,21 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\healthlink\Documents\WeChat Files\z826919225\FileStorage\File\2020-06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work_project\6-9 运营对接有赞商城\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>产品名称</t>
   </si>
@@ -27,23 +28,68 @@
     <t>产品标识码</t>
   </si>
   <si>
+    <t>优享健康卡</t>
+  </si>
+  <si>
+    <t>基因肿瘤烟酒男18项&amp;女21项检测</t>
+  </si>
+  <si>
+    <t>基因免疫检测</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I20AS9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>I20AT0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>尊享健康卡</t>
-  </si>
-  <si>
-    <t>优享健康卡</t>
-  </si>
-  <si>
-    <t>基因肿瘤烟酒男18项&amp;女21项检测</t>
-  </si>
-  <si>
-    <t>基因免疫检测</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I20AS9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品标识码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务名称</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>I20AT0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>尊享健康卡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话医生</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频医生</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自助挂号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线咨询</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠购药</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>重疾绿通</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -51,7 +97,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -81,6 +127,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -124,7 +178,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -138,6 +192,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -417,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -437,29 +500,29 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4"/>
     </row>
@@ -468,4 +531,111 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="3" width="18.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A8:A10"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>